--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R347c0a1a67ea49b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R5a24759b167446f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R5a24759b167446f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc382aafb55154187"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc382aafb55154187"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R0978176b7af14a38"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R0978176b7af14a38"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R68d5c56cefd24043"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R68d5c56cefd24043"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R84f7558e0ea24dbb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R84f7558e0ea24dbb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rcae57379e4184c0f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rcae57379e4184c0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R07d37c959d7644f9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R07d37c959d7644f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R1665399f95744de5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R1665399f95744de5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R53db54ab360a4466"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="R53db54ab360a4466"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rfbc46914217943be"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rfbc46914217943be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc1e563dc54a44b21"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc1e563dc54a44b21"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc75e0629ebb141db"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/003_SimpleTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc75e0629ebb141db"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SimpleTable" sheetId="1" r:id="Rc8d561e9865d4cdb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
